--- a/Examples/example1/deliverables/GENEX_CR1/assets/GENEX_CR1_pct.xlsx
+++ b/Examples/example1/deliverables/GENEX_CR1/assets/GENEX_CR1_pct.xlsx
@@ -58,7 +58,7 @@
     <t>genomex</t>
   </si>
   <si>
-    <t>chr3:400385-400404</t>
+    <t>chr4:35839-35858</t>
   </si>
   <si>
     <t>sample2</t>
@@ -454,25 +454,25 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>26239</v>
+        <v>5421</v>
       </c>
       <c r="F2">
-        <v>14027</v>
+        <v>5421</v>
       </c>
       <c r="G2">
-        <v>12212</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>53.46</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>46.54</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -489,25 +489,25 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>24790</v>
+        <v>17451</v>
       </c>
       <c r="F3">
-        <v>5128</v>
+        <v>5836</v>
       </c>
       <c r="G3">
-        <v>19662</v>
+        <v>11615</v>
       </c>
       <c r="H3">
-        <v>20.69</v>
+        <v>33.44</v>
       </c>
       <c r="I3">
-        <v>79.31</v>
+        <v>66.56</v>
       </c>
       <c r="J3">
-        <v>1070</v>
+        <v>1829</v>
       </c>
       <c r="K3">
-        <v>4.32</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -524,25 +524,25 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>35434</v>
+        <v>28382</v>
       </c>
       <c r="F4">
-        <v>35392</v>
+        <v>14060</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>14322</v>
       </c>
       <c r="H4">
-        <v>99.88</v>
+        <v>49.54</v>
       </c>
       <c r="I4">
-        <v>0.12</v>
+        <v>50.46</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2159</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -559,25 +559,25 @@
         <v>14</v>
       </c>
       <c r="E5">
-        <v>133</v>
+        <v>32821</v>
       </c>
       <c r="F5">
-        <v>102</v>
+        <v>26097</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>6724</v>
       </c>
       <c r="H5">
-        <v>76.69</v>
+        <v>79.51</v>
       </c>
       <c r="I5">
-        <v>23.31</v>
+        <v>20.49</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.58</v>
       </c>
     </row>
   </sheetData>
